--- a/megamanconversion.xlsx
+++ b/megamanconversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msbdl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF05F5D-B3FC-4F2A-B456-E70C3168E450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF1DB37-BCA5-426D-BB58-30BE98E8831F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="255" windowWidth="18150" windowHeight="20685" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
+    <workbookView xWindow="7470" yWindow="255" windowWidth="18150" windowHeight="20685" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="668">
   <si>
     <t>megaman</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Scream after buster shot?</t>
   </si>
   <si>
-    <t>10C?</t>
-  </si>
-  <si>
     <t>330</t>
   </si>
   <si>
@@ -390,21 +387,39 @@
     <t>50</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
@@ -426,24 +441,6 @@
     <t>Proto Man Shot 3?</t>
   </si>
   <si>
-    <t>101?</t>
-  </si>
-  <si>
-    <t>102?</t>
-  </si>
-  <si>
-    <t>103?</t>
-  </si>
-  <si>
-    <t>104?</t>
-  </si>
-  <si>
-    <t>105?</t>
-  </si>
-  <si>
-    <t>106?</t>
-  </si>
-  <si>
     <t>1C1</t>
   </si>
   <si>
@@ -498,21 +495,12 @@
     <t>5D</t>
   </si>
   <si>
-    <t>Some blast</t>
-  </si>
-  <si>
     <t>5E</t>
   </si>
   <si>
-    <t>Light swipe</t>
-  </si>
-  <si>
     <t>5F</t>
   </si>
   <si>
-    <t>Bubble</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -534,33 +522,18 @@
     <t>63</t>
   </si>
   <si>
-    <t>Slice</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
-    <t>Thwing</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
-    <t>Some charge up thing</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
-    <t>Spawn</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
-    <t>Same spawn noise</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
@@ -573,18 +546,12 @@
     <t>6A</t>
   </si>
   <si>
-    <t>Same Defeat</t>
-  </si>
-  <si>
     <t>6B</t>
   </si>
   <si>
     <t>6C</t>
   </si>
   <si>
-    <t>Pling up</t>
-  </si>
-  <si>
     <t>6D</t>
   </si>
   <si>
@@ -636,9 +603,6 @@
     <t>75</t>
   </si>
   <si>
-    <t>Protoman quick scrape?</t>
-  </si>
-  <si>
     <t>Bass sook</t>
   </si>
   <si>
@@ -651,9 +615,6 @@
     <t>77</t>
   </si>
   <si>
-    <t>Protoman yoo ack</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -693,27 +654,15 @@
     <t>7E</t>
   </si>
   <si>
-    <t>Bass Hmph</t>
-  </si>
-  <si>
     <t>7F</t>
   </si>
   <si>
-    <t>?? Ekuze</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
-    <t>?? Huuuuuuuaaaahhh</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
-    <t>?? Testshaaaaah</t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
@@ -747,9 +696,6 @@
     <t>87</t>
   </si>
   <si>
-    <t>Mega Man Eva Neval</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -759,15 +705,9 @@
     <t>89</t>
   </si>
   <si>
-    <t>Mega Man Dan Steelo</t>
-  </si>
-  <si>
     <t>8A</t>
   </si>
   <si>
-    <t>Bass Ace Steel</t>
-  </si>
-  <si>
     <t>8B</t>
   </si>
   <si>
@@ -804,9 +744,6 @@
     <t>91</t>
   </si>
   <si>
-    <t>Thump</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
@@ -822,15 +759,9 @@
     <t>94</t>
   </si>
   <si>
-    <t>Light attack?</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
-    <t>Big swoop</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
@@ -1042,6 +973,1071 @@
   </si>
   <si>
     <t>Glass break</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>10D</t>
+  </si>
+  <si>
+    <t>10E</t>
+  </si>
+  <si>
+    <t>10F</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>11C</t>
+  </si>
+  <si>
+    <t>11D</t>
+  </si>
+  <si>
+    <t>11E</t>
+  </si>
+  <si>
+    <t>11F</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>12D</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>13B</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>13D</t>
+  </si>
+  <si>
+    <t>13E</t>
+  </si>
+  <si>
+    <t>13F</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>14B</t>
+  </si>
+  <si>
+    <t>14C</t>
+  </si>
+  <si>
+    <t>14D</t>
+  </si>
+  <si>
+    <t>14E</t>
+  </si>
+  <si>
+    <t>14F</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>15B</t>
+  </si>
+  <si>
+    <t>15C</t>
+  </si>
+  <si>
+    <t>15D</t>
+  </si>
+  <si>
+    <t>15E</t>
+  </si>
+  <si>
+    <t>15F</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>16A</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>16C</t>
+  </si>
+  <si>
+    <t>16D</t>
+  </si>
+  <si>
+    <t>16E</t>
+  </si>
+  <si>
+    <t>16F</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>17A</t>
+  </si>
+  <si>
+    <t>17B</t>
+  </si>
+  <si>
+    <t>17C</t>
+  </si>
+  <si>
+    <t>17D</t>
+  </si>
+  <si>
+    <t>17E</t>
+  </si>
+  <si>
+    <t>17F</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>18A</t>
+  </si>
+  <si>
+    <t>18B</t>
+  </si>
+  <si>
+    <t>18C</t>
+  </si>
+  <si>
+    <t>18D</t>
+  </si>
+  <si>
+    <t>18E</t>
+  </si>
+  <si>
+    <t>18F</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>19A</t>
+  </si>
+  <si>
+    <t>19B</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>19D</t>
+  </si>
+  <si>
+    <t>19E</t>
+  </si>
+  <si>
+    <t>19F</t>
+  </si>
+  <si>
+    <t>1A0</t>
+  </si>
+  <si>
+    <t>1A1</t>
+  </si>
+  <si>
+    <t>1A2</t>
+  </si>
+  <si>
+    <t>1A3</t>
+  </si>
+  <si>
+    <t>1A4</t>
+  </si>
+  <si>
+    <t>1A5</t>
+  </si>
+  <si>
+    <t>1A6</t>
+  </si>
+  <si>
+    <t>1A7</t>
+  </si>
+  <si>
+    <t>1A8</t>
+  </si>
+  <si>
+    <t>1A9</t>
+  </si>
+  <si>
+    <t>1AA</t>
+  </si>
+  <si>
+    <t>1AB</t>
+  </si>
+  <si>
+    <t>1AC</t>
+  </si>
+  <si>
+    <t>1AD</t>
+  </si>
+  <si>
+    <t>1AE</t>
+  </si>
+  <si>
+    <t>1AF</t>
+  </si>
+  <si>
+    <t>1B0</t>
+  </si>
+  <si>
+    <t>1B1</t>
+  </si>
+  <si>
+    <t>1B2</t>
+  </si>
+  <si>
+    <t>1B3</t>
+  </si>
+  <si>
+    <t>1B4</t>
+  </si>
+  <si>
+    <t>1B5</t>
+  </si>
+  <si>
+    <t>1B6</t>
+  </si>
+  <si>
+    <t>1B7</t>
+  </si>
+  <si>
+    <t>1B8</t>
+  </si>
+  <si>
+    <t>1B9</t>
+  </si>
+  <si>
+    <t>1BA</t>
+  </si>
+  <si>
+    <t>1BB</t>
+  </si>
+  <si>
+    <t>1BC</t>
+  </si>
+  <si>
+    <t>1BD</t>
+  </si>
+  <si>
+    <t>1BE</t>
+  </si>
+  <si>
+    <t>1BF</t>
+  </si>
+  <si>
+    <t>1C0</t>
+  </si>
+  <si>
+    <t>1C3</t>
+  </si>
+  <si>
+    <t>1C4</t>
+  </si>
+  <si>
+    <t>1C5</t>
+  </si>
+  <si>
+    <t>1C6</t>
+  </si>
+  <si>
+    <t>1C7</t>
+  </si>
+  <si>
+    <t>1C8</t>
+  </si>
+  <si>
+    <t>1C9</t>
+  </si>
+  <si>
+    <t>1CA</t>
+  </si>
+  <si>
+    <t>1CB</t>
+  </si>
+  <si>
+    <t>1CC</t>
+  </si>
+  <si>
+    <t>1CD</t>
+  </si>
+  <si>
+    <t>1CE</t>
+  </si>
+  <si>
+    <t>1CF</t>
+  </si>
+  <si>
+    <t>1D0</t>
+  </si>
+  <si>
+    <t>1D3</t>
+  </si>
+  <si>
+    <t>1D4</t>
+  </si>
+  <si>
+    <t>1D5</t>
+  </si>
+  <si>
+    <t>1D6</t>
+  </si>
+  <si>
+    <t>1D7</t>
+  </si>
+  <si>
+    <t>1D8</t>
+  </si>
+  <si>
+    <t>1D9</t>
+  </si>
+  <si>
+    <t>1DA</t>
+  </si>
+  <si>
+    <t>1DB</t>
+  </si>
+  <si>
+    <t>1DC</t>
+  </si>
+  <si>
+    <t>1DD</t>
+  </si>
+  <si>
+    <t>1DE</t>
+  </si>
+  <si>
+    <t>1DF</t>
+  </si>
+  <si>
+    <t>1E0</t>
+  </si>
+  <si>
+    <t>1E3</t>
+  </si>
+  <si>
+    <t>1E4</t>
+  </si>
+  <si>
+    <t>1E5</t>
+  </si>
+  <si>
+    <t>1E6</t>
+  </si>
+  <si>
+    <t>1E7</t>
+  </si>
+  <si>
+    <t>1E8</t>
+  </si>
+  <si>
+    <t>1E9</t>
+  </si>
+  <si>
+    <t>1EA</t>
+  </si>
+  <si>
+    <t>1EB</t>
+  </si>
+  <si>
+    <t>1EC</t>
+  </si>
+  <si>
+    <t>1ED</t>
+  </si>
+  <si>
+    <t>1EE</t>
+  </si>
+  <si>
+    <t>1EF</t>
+  </si>
+  <si>
+    <t>1F0</t>
+  </si>
+  <si>
+    <t>1F1</t>
+  </si>
+  <si>
+    <t>1F2</t>
+  </si>
+  <si>
+    <t>1F3</t>
+  </si>
+  <si>
+    <t>1F4</t>
+  </si>
+  <si>
+    <t>1F5</t>
+  </si>
+  <si>
+    <t>1F6</t>
+  </si>
+  <si>
+    <t>1F7</t>
+  </si>
+  <si>
+    <t>1F8</t>
+  </si>
+  <si>
+    <t>1F9</t>
+  </si>
+  <si>
+    <t>1FA</t>
+  </si>
+  <si>
+    <t>1FB</t>
+  </si>
+  <si>
+    <t>1FC</t>
+  </si>
+  <si>
+    <t>1FD</t>
+  </si>
+  <si>
+    <t>1FE</t>
+  </si>
+  <si>
+    <t>1FF</t>
+  </si>
+  <si>
+    <t>Coin up</t>
+  </si>
+  <si>
+    <t>Course Select</t>
+  </si>
+  <si>
+    <t>Character selected</t>
+  </si>
+  <si>
+    <t>rmancp2j characters have a unique voice selection sound</t>
+  </si>
+  <si>
+    <t>Stage select</t>
+  </si>
+  <si>
+    <t>Boss unveiled</t>
+  </si>
+  <si>
+    <t>Gutsman jump</t>
+  </si>
+  <si>
+    <t>Gutsman land</t>
+  </si>
+  <si>
+    <t>Gutsman smash rock start</t>
+  </si>
+  <si>
+    <t>Gutsman smash rock end</t>
+  </si>
+  <si>
+    <t>Mega Man Defeat</t>
+  </si>
+  <si>
+    <t>rmancp2j individual numbers</t>
+  </si>
+  <si>
+    <t>Coin up + Rockman Power Battle</t>
+  </si>
+  <si>
+    <t>Player select switch</t>
+  </si>
+  <si>
+    <t>34E</t>
+  </si>
+  <si>
+    <t>Is this re-used for other bosses?</t>
+  </si>
+  <si>
+    <t>Protoman thh</t>
+  </si>
+  <si>
+    <t>Proto Hmph</t>
+  </si>
+  <si>
+    <t>Bass Ekuze</t>
+  </si>
+  <si>
+    <t>Bass Huuuuuuuaaaahhh</t>
+  </si>
+  <si>
+    <t>Bass Testshaaaaah</t>
+  </si>
+  <si>
+    <t>Mega Man Leaf Shield</t>
+  </si>
+  <si>
+    <t>Mega Man Jump Shield</t>
+  </si>
+  <si>
+    <t>Protoman Leaf Shield</t>
+  </si>
+  <si>
+    <t>Shot hit</t>
+  </si>
+  <si>
+    <t>1C1?</t>
+  </si>
+  <si>
+    <t>Mega Man charged blast</t>
+  </si>
+  <si>
+    <t>Same as 56?</t>
+  </si>
+  <si>
+    <t>Mega Man Slide</t>
+  </si>
+  <si>
+    <t>Proto Man Slide</t>
+  </si>
+  <si>
+    <t>Bass Slide</t>
+  </si>
+  <si>
+    <t>Continue countdown/Points count up</t>
+  </si>
+  <si>
+    <t>Mega Man Spawn</t>
+  </si>
+  <si>
+    <t>Proto Man Spawn</t>
+  </si>
+  <si>
+    <t>Bass Spawn</t>
+  </si>
+  <si>
+    <t>Mega Man jump</t>
+  </si>
+  <si>
+    <t>Mega Man land</t>
+  </si>
+  <si>
+    <t>Proto Man Defeat</t>
+  </si>
+  <si>
+    <t>Bass Defeat</t>
+  </si>
+  <si>
+    <t>170?</t>
+  </si>
+  <si>
+    <t>116?</t>
+  </si>
+  <si>
+    <t>Iceman ice</t>
+  </si>
+  <si>
+    <t>Iceman land</t>
+  </si>
+  <si>
+    <t>No sound called in arcade version</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +2053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,6 +2063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,10 +2085,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,46 +2404,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3044B5E-7126-4E59-880B-9E1DA9AB8DD1}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:G511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +2475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +2483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1512,7 +2515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +2523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +2531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +2539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1544,7 +2547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1680,1262 +2683,3124 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="D35" t="s">
+      <c r="C35" s="2"/>
+      <c r="E35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="D36" t="s">
+      <c r="C36" s="2"/>
+      <c r="E36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="D37" t="s">
+      <c r="C37" s="2"/>
+      <c r="E37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="D46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" t="s">
         <v>64</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" t="s">
         <v>67</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" t="s">
         <v>70</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" t="s">
         <v>79</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="D55" t="s">
         <v>82</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="D56" t="s">
         <v>84</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="D57" t="s">
         <v>86</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="D58" t="s">
         <v>88</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="D59" t="s">
         <v>90</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="D61" t="s">
         <v>93</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="D62" t="s">
         <v>95</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="D63" t="s">
         <v>97</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="D64" t="s">
         <v>99</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="D65" t="s">
         <v>101</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="B80" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" t="s">
         <v>131</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="D85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D93" t="s">
+        <v>650</v>
+      </c>
+      <c r="G93" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D94" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D95" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D100" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D102" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D105" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D106" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D108" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D112" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D114" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D116" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D117" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D119" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D125" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D126" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D127" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D128" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D129" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D133" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D134" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D135" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D136" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D137" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D138" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D139" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D140" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D141" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D142" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D145" t="s">
+        <v>631</v>
+      </c>
+      <c r="G145" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D146" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="D147" t="s">
+        <v>666</v>
+      </c>
+      <c r="G147" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D148" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D149" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D150" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D151" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D152" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D153" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D154" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D155" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D156" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D157" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D160" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D161" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D162" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D163" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D164" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D165" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D167" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D168" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D169" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D170" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D171" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D173" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D174" t="s">
+        <v>285</v>
+      </c>
+      <c r="G174" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D175" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D176" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D177" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D178" t="s">
+        <v>292</v>
+      </c>
+      <c r="G178" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D179" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D180" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D181" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D182" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D183" t="s">
+        <v>302</v>
+      </c>
+      <c r="G183" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D184" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D185" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D186" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D187" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D188" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D232" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D236" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D238" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D302" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D303" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D304" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D305" t="s">
+        <v>626</v>
+      </c>
+      <c r="G305" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D306" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D307" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C308" s="3"/>
+      <c r="D308" t="s">
+        <v>655</v>
+      </c>
+      <c r="G308" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-      <c r="F92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C97" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C102" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C106" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C109" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C112" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C113" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C114" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C116" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C118" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C119" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C121" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C123" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C124" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C125" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C126" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C128" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C129" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C130" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C132" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C133" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C134" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C135" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C136" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C137" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C138" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C139" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C140" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C141" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C142" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C143" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C145" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C146" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C147" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C148" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C149" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C150" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C151" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C152" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C153" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C154" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C155" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C156" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C157" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C160" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C161" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C162" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C163" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C164" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C165" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C166" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C167" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C168" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C169" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C170" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C171" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C172" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C173" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C174" t="s">
-        <v>308</v>
-      </c>
-      <c r="F174" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C175" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C176" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C177" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C178" t="s">
-        <v>315</v>
-      </c>
-      <c r="F178" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C179" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C180" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C181" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C182" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C183" t="s">
-        <v>325</v>
-      </c>
-      <c r="F183" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C184" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C185" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C186" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C187" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C188" t="s">
-        <v>335</v>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/megamanconversion.xlsx
+++ b/megamanconversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msbdl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF1DB37-BCA5-426D-BB58-30BE98E8831F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0B584-40FA-4DBD-8071-87601FD3B257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="255" windowWidth="18150" windowHeight="20685" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
+    <workbookView xWindow="13185" yWindow="300" windowWidth="18150" windowHeight="20685" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="782">
   <si>
     <t>megaman</t>
   </si>
@@ -237,9 +237,6 @@
     <t>32A</t>
   </si>
   <si>
-    <t>??? Power Button!!!</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -306,42 +303,24 @@
     <t>3A</t>
   </si>
   <si>
-    <t>Jab?</t>
-  </si>
-  <si>
     <t>3B</t>
   </si>
   <si>
     <t>3C</t>
   </si>
   <si>
-    <t>small laser shot?</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>spray noise?</t>
-  </si>
-  <si>
     <t>3E</t>
   </si>
   <si>
-    <t>Spawn noise?</t>
-  </si>
-  <si>
     <t>3F</t>
   </si>
   <si>
-    <t>Shot noise?</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>BOW?</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -540,9 +519,6 @@
     <t>69</t>
   </si>
   <si>
-    <t>Defeat</t>
-  </si>
-  <si>
     <t>6A</t>
   </si>
   <si>
@@ -555,9 +531,6 @@
     <t>6D</t>
   </si>
   <si>
-    <t>Count up?</t>
-  </si>
-  <si>
     <t>6E</t>
   </si>
   <si>
@@ -678,9 +651,6 @@
     <t>84</t>
   </si>
   <si>
-    <t>Metal hammer tink</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
@@ -786,9 +756,6 @@
     <t>9A</t>
   </si>
   <si>
-    <t>Loud clang</t>
-  </si>
-  <si>
     <t>9B</t>
   </si>
   <si>
@@ -822,21 +789,12 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Same bubble twang</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>Water noise</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>Quick swipe</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -924,27 +882,15 @@
     <t>B4</t>
   </si>
   <si>
-    <t>Whiz by</t>
-  </si>
-  <si>
     <t>B5</t>
   </si>
   <si>
-    <t>Short electricity</t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
-    <t>Beoowwwwwuuupp ping</t>
-  </si>
-  <si>
     <t>B7</t>
   </si>
   <si>
-    <t>Static</t>
-  </si>
-  <si>
     <t>B8</t>
   </si>
   <si>
@@ -1932,9 +1878,6 @@
     <t>Gutsman land</t>
   </si>
   <si>
-    <t>Gutsman smash rock start</t>
-  </si>
-  <si>
     <t>Gutsman smash rock end</t>
   </si>
   <si>
@@ -2028,16 +1971,415 @@
     <t>170?</t>
   </si>
   <si>
-    <t>116?</t>
-  </si>
-  <si>
     <t>Iceman ice</t>
   </si>
   <si>
-    <t>Iceman land</t>
-  </si>
-  <si>
-    <t>No sound called in arcade version</t>
+    <t>Voice samples start</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>30B</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>30C</t>
+  </si>
+  <si>
+    <t>30D</t>
+  </si>
+  <si>
+    <t>30E</t>
+  </si>
+  <si>
+    <t>Siren going low</t>
+  </si>
+  <si>
+    <t>31E</t>
+  </si>
+  <si>
+    <t>Boss Defeat</t>
+  </si>
+  <si>
+    <t>Verify these aren't different for each boss, and that this isn't shared with the main characters</t>
+  </si>
+  <si>
+    <t>2C7</t>
+  </si>
+  <si>
+    <t>2D7</t>
+  </si>
+  <si>
+    <t>2E7</t>
+  </si>
+  <si>
+    <t>2C8</t>
+  </si>
+  <si>
+    <t>2D8</t>
+  </si>
+  <si>
+    <t>2E8</t>
+  </si>
+  <si>
+    <t>2C9</t>
+  </si>
+  <si>
+    <t>2D9</t>
+  </si>
+  <si>
+    <t>2E9</t>
+  </si>
+  <si>
+    <t>2C0</t>
+  </si>
+  <si>
+    <t>2CA</t>
+  </si>
+  <si>
+    <t>2CB</t>
+  </si>
+  <si>
+    <t>2D0</t>
+  </si>
+  <si>
+    <t>2DA</t>
+  </si>
+  <si>
+    <t>2DF</t>
+  </si>
+  <si>
+    <t>2E0</t>
+  </si>
+  <si>
+    <t>2EA</t>
+  </si>
+  <si>
+    <t>2EB</t>
+  </si>
+  <si>
+    <t>Sounds repeat from 70</t>
+  </si>
+  <si>
+    <t>2C4</t>
+  </si>
+  <si>
+    <t>2C3</t>
+  </si>
+  <si>
+    <t>2C5</t>
+  </si>
+  <si>
+    <t>2D4</t>
+  </si>
+  <si>
+    <t>2D3</t>
+  </si>
+  <si>
+    <t>2D5</t>
+  </si>
+  <si>
+    <t>2E4</t>
+  </si>
+  <si>
+    <t>2E3</t>
+  </si>
+  <si>
+    <t>2E5</t>
+  </si>
+  <si>
+    <t>Switch weapon</t>
+  </si>
+  <si>
+    <t>Gutsman shot</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>Gutsman rock explosion</t>
+  </si>
+  <si>
+    <t>Heatman shot</t>
+  </si>
+  <si>
+    <t>Cutman shot</t>
+  </si>
+  <si>
+    <t>Iceman shot</t>
+  </si>
+  <si>
+    <t>Crashman shot</t>
+  </si>
+  <si>
+    <t>Heatman flame attack</t>
+  </si>
+  <si>
+    <t>Heatman jump</t>
+  </si>
+  <si>
+    <t>Boss defeat clang</t>
+  </si>
+  <si>
+    <t>Dustman emerge</t>
+  </si>
+  <si>
+    <t>Dustman shot</t>
+  </si>
+  <si>
+    <t>Dustman shot hit</t>
+  </si>
+  <si>
+    <t>Dustman vacuum</t>
+  </si>
+  <si>
+    <t>Gyroman copter up</t>
+  </si>
+  <si>
+    <t>Gyroman copter down</t>
+  </si>
+  <si>
+    <t>Gyroman copter spin</t>
+  </si>
+  <si>
+    <t>Gyroman blade attack</t>
+  </si>
+  <si>
+    <t>Shot deflect</t>
+  </si>
+  <si>
+    <t>Magnetman spawn</t>
+  </si>
+  <si>
+    <t>Sound may need to be stopped</t>
+  </si>
+  <si>
+    <t>Magnetman ready</t>
+  </si>
+  <si>
+    <t>Magnetman shot</t>
+  </si>
+  <si>
+    <t>Magnetman magnetism</t>
+  </si>
+  <si>
+    <t>Plantman spawn</t>
+  </si>
+  <si>
+    <t>Plantman circle</t>
+  </si>
+  <si>
+    <t>Platman shot</t>
+  </si>
+  <si>
+    <t>Platman seed</t>
+  </si>
+  <si>
+    <t>Platman grow</t>
+  </si>
+  <si>
+    <t>Platman yawn</t>
+  </si>
+  <si>
+    <t>Platman leaf</t>
+  </si>
+  <si>
+    <t>Napalmman shot</t>
+  </si>
+  <si>
+    <t>Plantman shield</t>
+  </si>
+  <si>
+    <t>Gyroman shot</t>
+  </si>
+  <si>
+    <t>Geminiman shot</t>
+  </si>
+  <si>
+    <t>Cloudman spawn</t>
+  </si>
+  <si>
+    <t>Cloudman electricity</t>
+  </si>
+  <si>
+    <t>Cloudman shock</t>
+  </si>
+  <si>
+    <t>Cloudman static rain</t>
+  </si>
+  <si>
+    <t>Shademan flap</t>
+  </si>
+  <si>
+    <t>Shademan shot</t>
+  </si>
+  <si>
+    <t>Shademan sonic blast</t>
+  </si>
+  <si>
+    <t>Same as A1</t>
+  </si>
+  <si>
+    <t>?? Fire shot</t>
+  </si>
+  <si>
+    <t>?? Slash shot</t>
+  </si>
+  <si>
+    <t>?? Elec shot</t>
+  </si>
+  <si>
+    <t>?? Shot</t>
+  </si>
+  <si>
+    <t>?? Ice shot</t>
+  </si>
+  <si>
+    <t>Rockman the Power Battle</t>
+  </si>
+  <si>
+    <t>Sounds duplicate from 36</t>
+  </si>
+  <si>
+    <t>26E</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>2C1</t>
+  </si>
+  <si>
+    <t>2D1</t>
+  </si>
+  <si>
+    <t>2E1</t>
+  </si>
+  <si>
+    <t>2C2</t>
+  </si>
+  <si>
+    <t>2D2</t>
+  </si>
+  <si>
+    <t>2E2</t>
+  </si>
+  <si>
+    <t>20C</t>
+  </si>
+  <si>
+    <t>2C1?</t>
+  </si>
+  <si>
+    <t>26F</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>27A</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>27B</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Sounds repeat from 50</t>
+  </si>
+  <si>
+    <t>Gutsman jump land</t>
+  </si>
+  <si>
+    <t>Bosses land</t>
+  </si>
+  <si>
+    <t>No sound called in arcade version for light characters</t>
+  </si>
+  <si>
+    <t>Woodman land</t>
+  </si>
+  <si>
+    <t>Woodman roll</t>
+  </si>
+  <si>
+    <t>Woodman leaves</t>
+  </si>
+  <si>
+    <t>Woodman thumps</t>
+  </si>
+  <si>
+    <t>Crashman explosions</t>
+  </si>
+  <si>
+    <t>Crashman shoot</t>
+  </si>
+  <si>
+    <t>Crashman bomb stick</t>
+  </si>
+  <si>
+    <t>Crashman floor moving</t>
+  </si>
+  <si>
+    <t>Heatman shot land</t>
+  </si>
+  <si>
+    <t>Iceman ice shot up</t>
+  </si>
+  <si>
+    <t>Iceman clouds</t>
+  </si>
+  <si>
+    <t>Freeze in ice</t>
+  </si>
+  <si>
+    <t>"Ice cloud!"</t>
+  </si>
+  <si>
+    <t>Gutsman ???</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2072,6 +2414,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2085,11 +2433,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2404,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3044B5E-7126-4E59-880B-9E1DA9AB8DD1}">
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,2979 +3177,3538 @@
         <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>736</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" t="s">
         <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
         <v>71</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
         <v>74</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" t="s">
         <v>78</v>
-      </c>
-      <c r="D53" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
         <v>81</v>
-      </c>
-      <c r="D55" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
         <v>83</v>
-      </c>
-      <c r="D56" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
         <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
         <v>87</v>
-      </c>
-      <c r="D58" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>691</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>692</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>719</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D66" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D67" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D70" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D71" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D72" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D74" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D75" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>113</v>
+        <v>689</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D77" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D80" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="D90" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D92" t="s">
-        <v>150</v>
-      </c>
-      <c r="G92" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>649</v>
+        <v>368</v>
       </c>
       <c r="D93" t="s">
-        <v>650</v>
+        <v>143</v>
       </c>
       <c r="G93" t="s">
-        <v>651</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>485</v>
+        <v>630</v>
       </c>
       <c r="D94" t="s">
-        <v>659</v>
+        <v>631</v>
+      </c>
+      <c r="G94" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="D95" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>495</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
       <c r="D99" t="s">
-        <v>652</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D100" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D101" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>497</v>
+        <v>375</v>
       </c>
       <c r="D102" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="D103" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D104" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>395</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D106" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D107" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>489</v>
+        <v>377</v>
       </c>
       <c r="D108" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="D109" t="s">
-        <v>173</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D111" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>571</v>
+        <v>167</v>
       </c>
       <c r="D112" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="D113" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D115" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="D116" t="s">
-        <v>640</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="D117" t="s">
-        <v>189</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D118" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="D119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="D120" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="D122" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="D123" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="D124" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="D125" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="D126" t="s">
-        <v>641</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="D127" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="D128" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="D129" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="D130" t="s">
-        <v>210</v>
+        <v>625</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="D131" t="s">
-        <v>212</v>
+        <v>779</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D132" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D133" t="s">
-        <v>216</v>
+        <v>706</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D134" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>568</v>
+        <v>207</v>
       </c>
       <c r="D135" t="s">
-        <v>645</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D136" t="s">
-        <v>221</v>
+        <v>626</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="D137" t="s">
-        <v>646</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="D138" t="s">
-        <v>229</v>
+        <v>627</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="D139" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="D140" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="D141" t="s">
-        <v>647</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D142" t="s">
-        <v>231</v>
+        <v>628</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="D143" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D144" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D145" t="s">
-        <v>631</v>
-      </c>
-      <c r="G145" t="s">
-        <v>639</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="D146" t="s">
-        <v>237</v>
+        <v>613</v>
+      </c>
+      <c r="G146" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B147" s="3"/>
+        <v>226</v>
+      </c>
       <c r="D147" t="s">
-        <v>666</v>
-      </c>
-      <c r="G147" t="s">
-        <v>667</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>485</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B148" s="3"/>
       <c r="D148" t="s">
-        <v>665</v>
+        <v>766</v>
+      </c>
+      <c r="G148" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="D149" t="s">
-        <v>630</v>
+        <v>696</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>663</v>
+        <v>467</v>
       </c>
       <c r="D150" t="s">
-        <v>243</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>487</v>
+        <v>644</v>
       </c>
       <c r="D151" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>664</v>
+        <v>469</v>
       </c>
       <c r="D152" t="s">
-        <v>648</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="D153" t="s">
-        <v>248</v>
+        <v>629</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>697</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D156" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D157" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="D158" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D159" t="s">
-        <v>168</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="D160" t="s">
-        <v>260</v>
+        <v>657</v>
+      </c>
+      <c r="G160" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D161" t="s">
-        <v>262</v>
+        <v>249</v>
+      </c>
+      <c r="G161" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D162" t="s">
-        <v>264</v>
+        <v>729</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D163" t="s">
-        <v>266</v>
+        <v>728</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D164" t="s">
-        <v>268</v>
+        <v>727</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D165" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D166" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D167" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D168" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D169" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D170" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D171" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D172" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D173" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D174" t="s">
-        <v>285</v>
-      </c>
-      <c r="G174" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D175" t="s">
-        <v>287</v>
+        <v>271</v>
+      </c>
+      <c r="G175" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D176" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D177" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D178" t="s">
-        <v>292</v>
-      </c>
-      <c r="G178" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D179" t="s">
-        <v>294</v>
+        <v>278</v>
+      </c>
+      <c r="G179" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D180" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="D181" t="s">
-        <v>298</v>
+        <v>724</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="D182" t="s">
-        <v>300</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D183" t="s">
-        <v>302</v>
-      </c>
-      <c r="G183" t="s">
-        <v>151</v>
+        <v>723</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="D184" t="s">
-        <v>304</v>
+        <v>726</v>
+      </c>
+      <c r="G184" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D185" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D186" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D187" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D188" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
+      </c>
+      <c r="D189" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D193" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D194" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D197" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D198" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D199" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D200" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D209" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D210" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="B211" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D211" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="B213" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D213" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D214" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="B215" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D215" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="B216" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D216" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="B221" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D221" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="B223" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D223" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>348</v>
+      <c r="B224" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D224" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D229" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D230" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D231" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="D232" t="s">
-        <v>665</v>
+        <v>770</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D233" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>358</v>
+        <v>339</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D234" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D235" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="D236" t="s">
-        <v>633</v>
+        <v>778</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
+      </c>
+      <c r="D237" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D238" t="s">
-        <v>632</v>
+        <v>781</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D239" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D241" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D242" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D243" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D244" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D245" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D246" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D247" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F273" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="D281" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D291" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D293" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D296" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D297" t="s">
+        <v>707</v>
+      </c>
+      <c r="G297" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D302" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>499</v>
+        <v>598</v>
       </c>
       <c r="D303" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D304" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D305" t="s">
-        <v>626</v>
-      </c>
-      <c r="G305" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D306" t="s">
-        <v>628</v>
+        <v>608</v>
+      </c>
+      <c r="G306" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="D307" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C308" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="D308" t="s">
-        <v>655</v>
-      </c>
-      <c r="G308" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" t="s">
+        <v>636</v>
+      </c>
+      <c r="G309" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>428</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
+      </c>
+      <c r="G311" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>434</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F337" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="B355" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="B356" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="B357" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="B358" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="B359" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="B362" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="B363" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="B364" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="B365" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="B366" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="B369" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F369" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="B370" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+      <c r="B371" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="B372" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="B373" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="B374" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="B375" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="B376" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="B377" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="B378" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="B379" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="B380" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+      <c r="B381" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="B382" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="B383" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="B384" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="B385" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="B386" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="B389" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="B392" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="B393" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="B394" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="B395" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="B396" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="B397" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+      <c r="B398" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+      <c r="B399" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>518</v>
+      <c r="B400" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>135</v>
+        <v>548</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>567</v>
+        <v>137</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>139</v>
+        <v>562</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>581</v>
+        <v>139</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>141</v>
+        <v>576</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>595</v>
+        <v>140</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>623</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/megamanconversion.xlsx
+++ b/megamanconversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msbdl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0B584-40FA-4DBD-8071-87601FD3B257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B445A-19E3-470F-ADB1-587B27F3F551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="300" windowWidth="18150" windowHeight="20685" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
+    <workbookView xWindow="7605" yWindow="1875" windowWidth="18150" windowHeight="12420" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="850">
   <si>
     <t>megaman</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Buster charge 2?</t>
   </si>
   <si>
-    <t>Buster charge 3?</t>
-  </si>
-  <si>
     <t>2A</t>
   </si>
   <si>
@@ -201,18 +198,12 @@
     <t>2C</t>
   </si>
   <si>
-    <t>Scream after buster shot?</t>
-  </si>
-  <si>
     <t>330</t>
   </si>
   <si>
     <t>2D</t>
   </si>
   <si>
-    <t>Big explosion?</t>
-  </si>
-  <si>
     <t>2E</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>37</t>
   </si>
   <si>
-    <t>Swipe?</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -639,9 +627,6 @@
     <t>82</t>
   </si>
   <si>
-    <t>High pling</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
@@ -660,9 +645,6 @@
     <t>86</t>
   </si>
   <si>
-    <t>Bounce</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -717,9 +699,6 @@
     <t>92</t>
   </si>
   <si>
-    <t>Light land?</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -750,18 +729,12 @@
     <t>99</t>
   </si>
   <si>
-    <t>Trash can</t>
-  </si>
-  <si>
     <t>9A</t>
   </si>
   <si>
     <t>9B</t>
   </si>
   <si>
-    <t>Heavy thud</t>
-  </si>
-  <si>
     <t>9C</t>
   </si>
   <si>
@@ -783,9 +756,6 @@
     <t>A0</t>
   </si>
   <si>
-    <t>Bubble twang</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -798,9 +768,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>Quicker swipe</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
@@ -810,75 +777,42 @@
     <t>A7</t>
   </si>
   <si>
-    <t>?? Yow</t>
-  </si>
-  <si>
     <t>A8</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>Glass breaky</t>
-  </si>
-  <si>
     <t>AA</t>
   </si>
   <si>
-    <t>Tap</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
-    <t>Burp</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>Wind noise</t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
-    <t>Low explode</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
-    <t>Motorcycle rev</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
-    <t>Motorcycle drive off</t>
-  </si>
-  <si>
     <t>B0</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>Clash noise</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>Yip yip yip yip</t>
-  </si>
-  <si>
     <t>B3</t>
   </si>
   <si>
-    <t>Step on rake</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
@@ -894,33 +828,18 @@
     <t>B8</t>
   </si>
   <si>
-    <t>Chomp?</t>
-  </si>
-  <si>
     <t>B9</t>
   </si>
   <si>
-    <t>Quick bwip</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
-    <t>Same as B2</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
-    <t>Tiny explode</t>
-  </si>
-  <si>
     <t>BC</t>
   </si>
   <si>
-    <t>Glass break</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
@@ -2380,6 +2299,291 @@
   </si>
   <si>
     <t>Gutsman ???</t>
+  </si>
+  <si>
+    <t>Buster charge in intro</t>
+  </si>
+  <si>
+    <t>Buster shot in intro</t>
+  </si>
+  <si>
+    <t>Rockman scream in JPN intro</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>Magentman back and forth magnet attack</t>
+  </si>
+  <si>
+    <t>Only happens once per game…</t>
+  </si>
+  <si>
+    <t>Platman seed hatch</t>
+  </si>
+  <si>
+    <t>Gemini Man spawn</t>
+  </si>
+  <si>
+    <t>Gemini Man sparkle</t>
+  </si>
+  <si>
+    <t>Geminiman bounce laser</t>
+  </si>
+  <si>
+    <t>Napalmman slide</t>
+  </si>
+  <si>
+    <t>Napalman shots</t>
+  </si>
+  <si>
+    <t>Napalmman launch</t>
+  </si>
+  <si>
+    <t>1A5?</t>
+  </si>
+  <si>
+    <t>Napalman</t>
+  </si>
+  <si>
+    <t>Intro song again</t>
+  </si>
+  <si>
+    <t>Char select song again</t>
+  </si>
+  <si>
+    <t>Stage select song again</t>
+  </si>
+  <si>
+    <t>Stage select song 2 again</t>
+  </si>
+  <si>
+    <t>Stage select song 3 again</t>
+  </si>
+  <si>
+    <t>Boss reveal song again</t>
+  </si>
+  <si>
+    <t>Boss defeat song again</t>
+  </si>
+  <si>
+    <t>Got weapon song again</t>
+  </si>
+  <si>
+    <t>End boss song again</t>
+  </si>
+  <si>
+    <t>Continue song again</t>
+  </si>
+  <si>
+    <t>Game over song again</t>
+  </si>
+  <si>
+    <t>Boss songs all the way down again</t>
+  </si>
+  <si>
+    <t>Why are these here?  Not duplicated in cps2.</t>
+  </si>
+  <si>
+    <t>Song repeats stop here</t>
+  </si>
+  <si>
+    <t>Repeats starting from 29</t>
+  </si>
+  <si>
+    <t>Yellow devil spawn</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>Yellow devil implode</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>Yellow devil re-form</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>Yellow devil punch</t>
+  </si>
+  <si>
+    <t>Shared with Yellow devil shot</t>
+  </si>
+  <si>
+    <t>Yellow devil fly around</t>
+  </si>
+  <si>
+    <t>Yellow devil laser</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Wiley ship flying</t>
+  </si>
+  <si>
+    <t>Wiley ship appear</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Wiley hand launch</t>
+  </si>
+  <si>
+    <t>Why does this have no sound in CPS2?!  Maybe use 356</t>
+  </si>
+  <si>
+    <t>Wiley mini ship flying?</t>
+  </si>
+  <si>
+    <t>Wiley shot?</t>
+  </si>
+  <si>
+    <t>Wiley spike wheels spin</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>Wiley laugh</t>
+  </si>
+  <si>
+    <t>31D</t>
+  </si>
+  <si>
+    <t>31B</t>
+  </si>
+  <si>
+    <t>Wiley I did it</t>
+  </si>
+  <si>
+    <t>Ending green robot with fan</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>Shademan intro</t>
+  </si>
+  <si>
+    <t>Shademan dive</t>
+  </si>
+  <si>
+    <t>Junkman land</t>
+  </si>
+  <si>
+    <t>Junkman shot</t>
+  </si>
+  <si>
+    <t>13A?</t>
+  </si>
+  <si>
+    <t>Junkman drill</t>
+  </si>
+  <si>
+    <t>13E?</t>
+  </si>
+  <si>
+    <t>Plays until stopped (No sound in CPS2 ver)</t>
+  </si>
+  <si>
+    <t>Slashman Yow</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>Slashman land?</t>
+  </si>
+  <si>
+    <t>Slashman deflect</t>
+  </si>
+  <si>
+    <t>Slashman swipe</t>
+  </si>
+  <si>
+    <t>121?</t>
+  </si>
+  <si>
+    <t>Turboman drive on</t>
+  </si>
+  <si>
+    <t>Turboman jump quote</t>
+  </si>
+  <si>
+    <t>Turboman fire</t>
+  </si>
+  <si>
+    <t>Might be 132</t>
+  </si>
+  <si>
+    <t>Turboman rev up</t>
+  </si>
+  <si>
+    <t>Turboman vacuum</t>
+  </si>
+  <si>
+    <t>Freezeman ice break</t>
+  </si>
+  <si>
+    <t>Freezeman running</t>
+  </si>
+  <si>
+    <t>114?</t>
+  </si>
+  <si>
+    <t>Bass knocked down bounce</t>
+  </si>
+  <si>
+    <t>Doesn't sound like a bounce on CPS2</t>
+  </si>
+  <si>
+    <t>Freezeman snowflake</t>
+  </si>
+  <si>
+    <t>Freezeman freeze</t>
+  </si>
+  <si>
+    <t>Freezeman snowflake break</t>
+  </si>
+  <si>
+    <t>No sound in CPS2 ver</t>
+  </si>
+  <si>
+    <t>Pumpkin 1</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Pumpkin 2</t>
+  </si>
+  <si>
+    <t>Pumpkin launch around</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>Pumpin launch bats?</t>
+  </si>
+  <si>
+    <t>?? Fire shot launch</t>
+  </si>
+  <si>
+    <t>I don't think there's a CPS2 version</t>
   </si>
 </sst>
 </file>
@@ -2755,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3044B5E-7126-4E59-880B-9E1DA9AB8DD1}">
   <dimension ref="A1:G512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,7 +3318,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
@@ -3122,3593 +3326,3945 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>757</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D50" t="s">
         <v>66</v>
       </c>
-      <c r="D49" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
         <v>68</v>
       </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
         <v>75</v>
       </c>
-      <c r="D52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="D56" t="s">
+        <v>848</v>
+      </c>
+      <c r="F56" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D59" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D59" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="D61" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="D63" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="D64" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="D65" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="D66" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="D67" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="D68" t="s">
-        <v>710</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="D70" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="D71" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D72" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="D73" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="D74" t="s">
-        <v>734</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="D75" t="s">
-        <v>735</v>
+        <v>708</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="D77" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G93" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="D94" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="G94" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="D95" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="D100" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="D101" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D102" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="D103" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D104" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="D105" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="D106" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="D107" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="D108" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D109" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="D110" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D112" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="D114" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="D115" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="D117" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="D118" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="D119" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="D120" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="D121" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="D122" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="D123" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="D125" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="D126" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="D127" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D128" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D129" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D130" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D131" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D128" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="D132" t="s">
         <v>198</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D129" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D130" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D133" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D131" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="D134" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B135" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D135" t="s">
+        <v>835</v>
+      </c>
+      <c r="G135" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="B136" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D136" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D133" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D137" t="s">
         <v>205</v>
       </c>
-      <c r="D134" t="s">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B138" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D138" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D135" t="s">
+      <c r="B139" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D140" t="s">
         <v>209</v>
       </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D141" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D142" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D136" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D137" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D138" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D139" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="D143" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="B144" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D144" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D142" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D143" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D144" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="D146" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="G146" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D147" t="s">
-        <v>227</v>
+        <v>822</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B148" s="3"/>
       <c r="D148" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="G148" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="D149" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="D150" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="D151" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D152" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D153" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="D154" t="s">
-        <v>238</v>
+        <v>766</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D155" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="D156" t="s">
-        <v>241</v>
+        <v>798</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D157" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D158" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="D160" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G160" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>249</v>
+        <v>702</v>
       </c>
       <c r="G161" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D162" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="D164" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D165" t="s">
-        <v>254</v>
+        <v>824</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="D166" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="D167" t="s">
-        <v>201</v>
+        <v>823</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="D168" t="s">
-        <v>258</v>
+        <v>820</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="D169" t="s">
-        <v>229</v>
+        <v>837</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="D170" t="s">
-        <v>261</v>
+        <v>838</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="D171" t="s">
-        <v>263</v>
+        <v>839</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="D172" t="s">
-        <v>265</v>
+        <v>833</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D173" t="s">
-        <v>267</v>
+        <v>831</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D174" t="s">
-        <v>269</v>
+        <v>828</v>
+      </c>
+      <c r="G174" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D175" t="s">
-        <v>271</v>
+        <v>830</v>
       </c>
       <c r="G175" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D176" t="s">
-        <v>273</v>
+        <v>826</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="D177" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D178" t="s">
-        <v>276</v>
+        <v>814</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>277</v>
+        <v>257</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="D179" t="s">
-        <v>278</v>
+        <v>817</v>
       </c>
       <c r="G179" t="s">
-        <v>144</v>
+        <v>819</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="D180" t="s">
-        <v>280</v>
+        <v>815</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="D181" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="D182" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B183" s="3"/>
       <c r="D183" t="s">
-        <v>723</v>
+        <v>696</v>
+      </c>
+      <c r="G183" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="D184" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="G184" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>285</v>
+        <v>263</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="D185" t="s">
-        <v>286</v>
+        <v>841</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="D186" t="s">
-        <v>288</v>
+        <v>847</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="D187" t="s">
-        <v>290</v>
+        <v>844</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>291</v>
+        <v>266</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="D188" t="s">
-        <v>292</v>
+        <v>845</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="D189" t="s">
-        <v>294</v>
+        <v>832</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="D193" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="D194" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="D195" t="s">
+        <v>759</v>
+      </c>
+      <c r="G195" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="D197" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D198" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D199" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D200" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D201" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D205" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D198" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D199" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D200" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="D207" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="D209" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="D210" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="D211" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>317</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="D213" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="D214" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="D215" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="D216" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="D221" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D222" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="D223" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="D224" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>330</v>
+        <v>303</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D225" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>332</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>333</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="D229" t="s">
-        <v>768</v>
+        <v>741</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="D230" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="D231" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="D232" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="D233" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="D234" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="D235" t="s">
-        <v>780</v>
+        <v>753</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D236" t="s">
-        <v>778</v>
+        <v>751</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="D237" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D238" t="s">
-        <v>781</v>
+        <v>754</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="D239" t="s">
-        <v>765</v>
+        <v>738</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="D241" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="D242" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="D243" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="D244" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="D245" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="G245" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="D246" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="D247" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D249" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D250" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D252" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D253" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D255" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D256" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="D257" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D258" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D259" t="s">
+        <v>800</v>
+      </c>
+      <c r="G259" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="D260" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D263" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D264" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D266" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>371</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>647</v>
+        <v>620</v>
+      </c>
+      <c r="D273" t="s">
+        <v>812</v>
       </c>
       <c r="F273" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>648</v>
+        <v>621</v>
+      </c>
+      <c r="D274" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>649</v>
+        <v>622</v>
+      </c>
+      <c r="D275" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D281" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="D291" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="D293" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>393</v>
+        <v>366</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D294" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>394</v>
+        <v>367</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D295" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="D296" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="D297" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
       <c r="G297" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>397</v>
+        <v>370</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D298" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="D303" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D304" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D305" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="D306" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="G306" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="D307" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="D308" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="G309" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="G311" t="s">
-        <v>737</v>
+        <v>710</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="F337" t="s">
-        <v>764</v>
+        <v>737</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>741</v>
+        <v>714</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="F369" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D401" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D408" t="s">
+        <v>770</v>
+      </c>
+      <c r="E408" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D409" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D410" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D411" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D412" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D413" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D414" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D415" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D416" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D417" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D418" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D419" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+      <c r="D438" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>547</v>
+      <c r="D448" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/megamanconversion.xlsx
+++ b/megamanconversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msbdl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B445A-19E3-470F-ADB1-587B27F3F551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E0768-5E12-408D-A504-9C16FE8A3AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="1875" windowWidth="18150" windowHeight="12420" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
+    <workbookView xWindow="14445" yWindow="5280" windowWidth="18150" windowHeight="12420" xr2:uid="{BDFE1306-A400-415E-B0F8-AD4A4BBC59D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="852">
   <si>
     <t>megaman</t>
   </si>
@@ -390,24 +390,6 @@
     <t>55</t>
   </si>
   <si>
-    <t>Mega Man Shot 1?</t>
-  </si>
-  <si>
-    <t>Mega Man Shot 2?</t>
-  </si>
-  <si>
-    <t>Mega Man Shot 3?</t>
-  </si>
-  <si>
-    <t>Proto Man Shot 1?</t>
-  </si>
-  <si>
-    <t>Proto Man Shot 2?</t>
-  </si>
-  <si>
-    <t>Proto Man Shot 3?</t>
-  </si>
-  <si>
     <t>1C1</t>
   </si>
   <si>
@@ -522,9 +504,6 @@
     <t>6E</t>
   </si>
   <si>
-    <t>Point noise?</t>
-  </si>
-  <si>
     <t>6F</t>
   </si>
   <si>
@@ -543,9 +522,6 @@
     <t>Protoman hit</t>
   </si>
   <si>
-    <t>Bass Blast with voice?</t>
-  </si>
-  <si>
     <t>Bass hit</t>
   </si>
   <si>
@@ -630,18 +606,12 @@
     <t>83</t>
   </si>
   <si>
-    <t>Metal crunch</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>Wump</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -2343,9 +2313,6 @@
     <t>1A5?</t>
   </si>
   <si>
-    <t>Napalman</t>
-  </si>
-  <si>
     <t>Intro song again</t>
   </si>
   <si>
@@ -2584,6 +2551,45 @@
   </si>
   <si>
     <t>I don't think there's a CPS2 version</t>
+  </si>
+  <si>
+    <t>Mega Man Shot</t>
+  </si>
+  <si>
+    <t>Proto Man Shot</t>
+  </si>
+  <si>
+    <t>Bass Shot</t>
+  </si>
+  <si>
+    <t>Mega Man Semi Charge Shot</t>
+  </si>
+  <si>
+    <t>Proto Man Semi Charge Shot</t>
+  </si>
+  <si>
+    <t>Bass Semi Charge Shot</t>
+  </si>
+  <si>
+    <t>Bass Blast with voice</t>
+  </si>
+  <si>
+    <t>Leaf shield shot deflect</t>
+  </si>
+  <si>
+    <t>Break out of ice</t>
+  </si>
+  <si>
+    <t>No sound in CPS2 version</t>
+  </si>
+  <si>
+    <t>Switch characters after continue</t>
+  </si>
+  <si>
+    <t>Napalmman canister bounce</t>
+  </si>
+  <si>
+    <t>Napalman explode</t>
   </si>
 </sst>
 </file>
@@ -2959,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3044B5E-7126-4E59-880B-9E1DA9AB8DD1}">
   <dimension ref="A1:G512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,8 +3334,12 @@
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44" s="3"/>
       <c r="D44" t="s">
-        <v>755</v>
+        <v>745</v>
+      </c>
+      <c r="E44" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3340,7 +3350,7 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3348,10 +3358,10 @@
         <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D46" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,7 +3394,7 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,10 +3462,10 @@
       </c>
       <c r="B56" s="3"/>
       <c r="D56" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="F56" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,10 +3489,10 @@
         <v>84</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D59" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,10 +3507,10 @@
         <v>86</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,10 +3518,10 @@
         <v>87</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,10 +3529,10 @@
         <v>88</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D63" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3530,10 +3540,10 @@
         <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D64" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,10 +3551,10 @@
         <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D65" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,10 +3562,10 @@
         <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D66" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,10 +3573,10 @@
         <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D67" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,10 +3584,10 @@
         <v>93</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D68" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,10 +3595,10 @@
         <v>94</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3596,10 +3606,10 @@
         <v>95</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D70" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3607,10 +3617,10 @@
         <v>96</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D71" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3618,10 +3628,10 @@
         <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D72" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,10 +3639,10 @@
         <v>98</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D73" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,10 +3650,10 @@
         <v>99</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,10 +3661,10 @@
         <v>100</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D75" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3664,13 +3674,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D77" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,10 +3703,10 @@
         <v>105</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3707,7 +3717,7 @@
         <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,7 +3728,7 @@
         <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3729,7 +3739,7 @@
         <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3740,7 +3750,7 @@
         <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>843</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,7 +3761,7 @@
         <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>844</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3759,1776 +3769,1799 @@
         <v>115</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>845</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G93" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D94" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G94" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D95" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D96" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D98" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D99" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D100" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D101" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D102" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D103" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D105" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D106" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D108" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D109" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D110" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>849</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D114" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D117" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D118" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D119" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D120" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D121" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D126" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D127" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D128" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D129" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D130" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D131" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="D132" t="s">
-        <v>198</v>
+        <v>847</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D133" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="D134" t="s">
-        <v>201</v>
+        <v>846</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="D135" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="G135" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D136" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D137" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D138" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D139" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D140" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D141" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D142" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D143" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D144" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D146" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G146" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B148" s="3"/>
       <c r="D148" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G148" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D149" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D150" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="D151" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D152" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D153" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D154" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D155" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D156" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D157" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D158" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D160" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G160" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D161" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G161" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D162" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D163" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D164" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D165" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D167" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D168" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D169" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D170" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D171" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D172" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D173" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D174" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G174" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D175" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G175" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D176" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D177" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D178" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="D179" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="G179" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D180" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D181" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D182" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B183" s="3"/>
       <c r="D183" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G183" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D184" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="G184" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="D185" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="D186" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="D187" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D188" t="s">
         <v>834</v>
-      </c>
-      <c r="D188" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D189" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D193" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D194" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D195" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="G195" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D197" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D198" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D199" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D200" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D201" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D205" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D206" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="D207" t="s">
-        <v>769</v>
+        <v>851</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D208" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D209" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D210" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D211" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D213" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D214" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D215" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D216" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D221" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D222" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D223" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D224" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D225" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D229" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D230" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D231" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D232" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D233" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D234" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D235" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D236" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D237" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D238" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D239" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D241" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D242" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D243" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D244" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D245" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G245" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D246" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D247" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B248" s="2"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D249" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="D250" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="D252" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="D253" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="D255" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D256" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D257" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -5536,10 +5569,10 @@
         <v>106</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D258" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -5547,10 +5580,10 @@
         <v>108</v>
       </c>
       <c r="D259" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G259" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -5558,7 +5591,7 @@
         <v>110</v>
       </c>
       <c r="D260" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -5576,1062 +5609,1062 @@
         <v>116</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D263" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="D264" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="D266" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D273" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="F273" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D274" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D275" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D281" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D291" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D293" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D294" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D295" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D296" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D297" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G297" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D298" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D303" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D304" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D306" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G306" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D307" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D308" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="G309" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G311" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F337" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F369" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D401" t="s">
         <v>66</v>
@@ -6639,632 +6672,632 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D408" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="E408" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D409" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D410" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D411" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D412" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D413" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D414" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D415" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D416" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D417" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D418" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D419" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D438" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D448" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
